--- a/ISO/Practicas/Practica4/EjerciciosPracticos.xlsx
+++ b/ISO/Practicas/Practica4/EjerciciosPracticos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54221\Desktop\ISO\Practicas\Practica4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3B18D-09A8-47C5-B64D-381A2ED81528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A8797A-7A9B-4844-A1DD-0426507CA1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="4" xr2:uid="{3EA49197-06F4-44D4-9C04-1C590BE8638D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{3EA49197-06F4-44D4-9C04-1C590BE8638D}"/>
   </bookViews>
   <sheets>
     <sheet name="Punto5" sheetId="1" r:id="rId1"/>
@@ -8150,7 +8150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ABE6C6-2CA3-4302-8C2C-41287CAB9075}">
   <dimension ref="A2:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -8589,8 +8589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76ED8EAD-6517-4CA4-963B-6EAC9061F9DE}">
   <dimension ref="A2:AO17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
